--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_3_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_3_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.6300000000001</v>
+        <v>22.31000000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.244779134854326e-07</v>
+        <v>5.287495430383871e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>4.244779134854326e-07</v>
+        <v>5.287495430383871e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>42.44211748649825</v>
+        <v>41.95283281619419</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[26.3202724313498, 58.563962541646696]</t>
+          <t>[27.823188287332286, 56.08247734505609]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.341453555627538e-06</v>
+        <v>3.341595282702059e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>3.341453555627538e-06</v>
+        <v>3.341595282702059e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83023716155081</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 2.245342497160273]</t>
+          <t>[1.0126054398958093, 1.7673424137311944]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.871081067861269e-11</v>
+        <v>2.45014497579632e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>1.871081067861269e-11</v>
+        <v>2.45014497579632e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>53.40824969316066</v>
+        <v>54.40726102116941</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.18532146732552, 62.6311779189958]</t>
+          <t>[46.20234169769346, 62.61218034464536]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.03807807807815</v>
+        <v>17.37455455455459</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.54300300300307</v>
+        <v>16.03461461461465</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.53315315315323</v>
+        <v>18.71449449449453</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.6300000000001</v>
+        <v>22.31000000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.334592100807555e-07</v>
+        <v>1.884160927279055e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>4.334592100807555e-07</v>
+        <v>1.884160927279055e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.09720322711564</v>
+        <v>44.95846734607001</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[24.81534033790971, 59.379066116321574]</t>
+          <t>[29.264944541115362, 60.651990151024656]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.256361901935676e-05</v>
+        <v>6.846423881157193e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>1.256361901935676e-05</v>
+        <v>6.846423881157193e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>2.031500354573581</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.591237119836273, 2.4717635893108882]</t>
+          <t>[1.54092132158058, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.900746475300366e-12</v>
+        <v>2.473576898864849e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>4.900746475300366e-12</v>
+        <v>2.473576898864849e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>54.09108543328254</v>
+        <v>56.7481580309257</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.84719362154532, 63.334977245019765]</t>
+          <t>[48.17622854209695, 65.32008751975445]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.31319319319326</v>
+        <v>15.49863863863867</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.72750750750757</v>
+        <v>14.15869869869873</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.89887887887895</v>
+        <v>16.83857857857861</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.6300000000001</v>
+        <v>22.31000000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>6.798195339996482e-11</v>
+        <v>1.043621067342571e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>6.798195339996482e-11</v>
+        <v>1.043621067342571e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>44.04662613585167</v>
+        <v>49.12385932565423</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[30.67720023381233, 57.41605203789102]</t>
+          <t>[31.107145618333746, 67.14057303297471]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.542944959633587e-08</v>
+        <v>1.762882257061449e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>3.542944959633587e-08</v>
+        <v>1.762882257061449e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>2.446605690183043</v>
+        <v>2.371131992799504</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.144710900648888, 2.7485004797171975]</t>
+          <t>[2.018921405009657, 2.72334258058935]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,27 +795,27 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>46.57229907894725</v>
+        <v>59.23194423314374</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.58621411157765, 53.558384046316846]</t>
+          <t>[49.84213865472876, 68.62174981155871]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>13.81811811811818</v>
+        <v>13.89071071071074</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.73079079079084</v>
+        <v>12.64010010010013</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.90544544544551</v>
+        <v>15.14132132132135</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.2900000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.695771383898204e-10</v>
+        <v>4.405562173959154e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>2.695771383898204e-10</v>
+        <v>4.405562173959154e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.27067491486932</v>
+        <v>38.30954567971337</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[36.285109462721465, 66.25624036701718]</t>
+          <t>[22.949260335912612, 53.66983102351412]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.479102662571563e-08</v>
+        <v>8.5119282264845e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.479102662571563e-08</v>
+        <v>8.5119282264845e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>2.836553126664658</v>
+        <v>2.773658378845042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.5220793875665803, 3.151026865762735]</t>
+          <t>[2.3208161945438106, 3.2265005631462738]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T5" t="n">
-        <v>63.31286231605198</v>
+        <v>52.96753568207945</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.77018986244936, 71.85553476965461]</t>
+          <t>[44.37741487159238, 61.55765649256652]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>12.77569569569581</v>
+        <v>12.99207207207218</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.61003003003013</v>
+        <v>11.31567567567577</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.94136136136148</v>
+        <v>14.66846846846859</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2900000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.998345293216744e-09</v>
+        <v>3.091910475760962e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>4.998345293216744e-09</v>
+        <v>3.091910475760962e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.31575912121168</v>
+        <v>39.38304188033679</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[33.00812490469979, 59.62339333772356]</t>
+          <t>[23.377525075990548, 55.388558684683034]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.852378912711401e-09</v>
+        <v>1.065309666303804e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>9.852378912711401e-09</v>
+        <v>1.065309666303804e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.107000542289005</v>
+        <v>2.962342622303889</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.4340532309510055, -2.7799478536270046]</t>
+          <t>[2.4591846397469648, 3.465500604860814]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="T6" t="n">
-        <v>48.97108006663711</v>
+        <v>57.9082666705612</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.36040855093755, 57.58175158233668]</t>
+          <t>[48.160994874114515, 67.65553846700789]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>11.51677677677688</v>
+        <v>12.29357357357368</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.30448448448458</v>
+        <v>10.430910910911</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.72906906906918</v>
+        <v>14.15623623623636</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2900000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.09973380296924e-10</v>
+        <v>8.817170438213395e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>3.09973380296924e-10</v>
+        <v>8.817170438213395e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.96725320721954</v>
+        <v>47.930211018106</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.62744794934528, 63.3070584650938]</t>
+          <t>[34.0682548502877, 61.7921671859243]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.600315213678982e-09</v>
+        <v>1.151795947507139e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.600315213678982e-09</v>
+        <v>1.151795947507139e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.081842643161159</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.371158483131389, -2.792526803190928]</t>
+          <t>[-3.4843690292066976, -2.7799478536270046]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,27 +1053,27 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>64.13797214694935</v>
+        <v>55.70424624575899</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[55.763892089138366, 72.51205220476034]</t>
+          <t>[46.577244091595226, 64.83124839992274]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>11.42352352352362</v>
+        <v>11.59507507507517</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.35111111111121</v>
+        <v>10.2912112112113</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.49593593593604</v>
+        <v>12.89893893893905</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_3_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_3_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.31000000000005</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5.287495430383871e-08</v>
+        <v>6.365252902540419e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>5.287495430383871e-08</v>
+        <v>6.365252902540419e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>41.95283281619419</v>
+        <v>46.84426245369744</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[27.823188287332286, 56.08247734505609]</t>
+          <t>[29.638861576007656, 64.04966333138722]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.341595282702059e-07</v>
+        <v>1.81068985605215e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>3.341595282702059e-07</v>
+        <v>1.81068985605215e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.389973926813502</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 1.7673424137311944]</t>
+          <t>[1.553500271144502, 2.308237244979887]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.45014497579632e-09</v>
+        <v>2.009503674571533e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>2.45014497579632e-09</v>
+        <v>2.009503674571533e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>54.40726102116941</v>
+        <v>59.23771269617274</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.20234169769346, 62.61218034464536]</t>
+          <t>[49.82085691395048, 68.654568478395]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>17.37455455455459</v>
+        <v>15.98042042042054</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.03461461461465</v>
+        <v>14.59483483483494</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.71449449449453</v>
+        <v>17.36600600600613</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.31000000000005</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.884160927279055e-08</v>
+        <v>2.119407405132279e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>1.884160927279055e-08</v>
+        <v>2.119407405132279e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.95846734607001</v>
+        <v>44.30036054136292</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[29.264944541115362, 60.651990151024656]</t>
+          <t>[28.001530894335858, 60.59919018838998]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>6.846423881157193e-07</v>
+        <v>1.868900566304177e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>6.846423881157193e-07</v>
+        <v>1.868900566304177e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.918289808498272</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 2.295658295415965]</t>
+          <t>[1.8050792624229652, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.473576898864849e-13</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>2.473576898864849e-13</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>56.7481580309257</v>
+        <v>50.62674727080634</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.17622854209695, 65.32008751975445]</t>
+          <t>[42.04859351733609, 59.204901024276595]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>15.49863863863867</v>
+        <v>15.0566966966968</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.15869869869873</v>
+        <v>13.67111111111121</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.83857857857861</v>
+        <v>16.4422822822824</v>
       </c>
     </row>
     <row r="4">
@@ -753,39 +753,39 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.31000000000005</v>
+        <v>23.07000000000017</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.043621067342571e-08</v>
+        <v>5.87688009368037e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>1.043621067342571e-08</v>
+        <v>5.87688009368037e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>49.12385932565423</v>
+        <v>49.20084404377655</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[31.107145618333746, 67.14057303297471]</t>
+          <t>[32.7134166955369, 65.68827139201619]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.762882257061449e-06</v>
+        <v>3.013610676561029e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>1.762882257061449e-06</v>
+        <v>3.013610676561029e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>2.371131992799504</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.018921405009657, 2.72334258058935]</t>
+          <t>[2.0063424554457336, 2.6352899336418885]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -795,27 +795,27 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>59.23194423314374</v>
+        <v>59.68642715805942</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.84213865472876, 68.62174981155871]</t>
+          <t>[51.3471920824766, 68.02566223364224]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.89071071071074</v>
+        <v>14.54864864864875</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.64010010010013</v>
+        <v>13.39399399399409</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.14132132132135</v>
+        <v>15.70330330330342</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.405562173959154e-07</v>
+        <v>6.350475700855895e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>4.405562173959154e-07</v>
+        <v>6.350475700855895e-14</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.30954567971337</v>
+        <v>48.97898318620027</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[22.949260335912612, 53.66983102351412]</t>
+          <t>[38.88267875784326, 59.075287614557276]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.5119282264845e-06</v>
+        <v>1.069810906528801e-12</v>
       </c>
       <c r="O5" t="n">
-        <v>8.5119282264845e-06</v>
+        <v>1.069810906528801e-12</v>
       </c>
       <c r="P5" t="n">
-        <v>2.773658378845042</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.3208161945438106, 3.2265005631462738]</t>
+          <t>[2.6856057318975806, 3.163605815326658]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.96753568207945</v>
+        <v>50.42326832461481</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.37741487159238, 61.55765649256652]</t>
+          <t>[44.19250423216567, 56.65403241706395]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12.99207207207218</v>
+        <v>12.44930930930942</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.31567567567577</v>
+        <v>11.56340340340351</v>
       </c>
       <c r="Z5" t="n">
-        <v>14.66846846846859</v>
+        <v>13.33521521521533</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.091910475760962e-06</v>
+        <v>1.694755225045697e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>3.091910475760962e-06</v>
+        <v>1.694755225045697e-09</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>39.38304188033679</v>
+        <v>47.68126079245457</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[23.377525075990548, 55.388558684683034]</t>
+          <t>[33.64557848692008, 61.716943097989066]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.065309666303804e-05</v>
+        <v>1.74720580226051e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>1.065309666303804e-05</v>
+        <v>1.74720580226051e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>2.962342622303889</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.4591846397469648, 3.465500604860814]</t>
+          <t>[2.6352899336418885, 3.3145532100937354]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>57.9082666705612</v>
+        <v>51.72946322086634</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.160994874114515, 67.65553846700789]</t>
+          <t>[43.224991693871765, 60.23393474786092]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W6" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X6" t="n">
-        <v>12.29357357357368</v>
+        <v>12.26280280280291</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.430910910911</v>
+        <v>11.00388388388398</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.15623623623636</v>
+        <v>13.52172172172184</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>8.817170438213395e-09</v>
+        <v>4.430048416881327e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>8.817170438213395e-09</v>
+        <v>4.430048416881327e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.930211018106</v>
+        <v>38.63927012781654</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.0682548502877, 61.7921671859243]</t>
+          <t>[22.02272530680014, 55.25581494883295]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.151795947507139e-08</v>
+        <v>2.617872844212776e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.151795947507139e-08</v>
+        <v>2.617872844212776e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.132158441416851</v>
+        <v>-2.993789996213696</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.4843690292066976, -2.7799478536270046]</t>
+          <t>[-3.484369029206697, -2.503210963220696]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T7" t="n">
-        <v>55.70424624575899</v>
+        <v>49.35363665375946</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.577244091595226, 64.83124839992274]</t>
+          <t>[39.62144551597823, 59.08582779154069]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.668976151198876e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>2.668976151198876e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>11.59507507507517</v>
+        <v>11.09713713713723</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.2912112112113</v>
+        <v>9.278698698698777</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.89893893893905</v>
+        <v>12.91557557557569</v>
       </c>
     </row>
   </sheetData>
